--- a/data/outputs/OR_altmetric/7.xlsx
+++ b/data/outputs/OR_altmetric/7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE117"/>
+  <dimension ref="A1:CF117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1541,6 +1552,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2021,6 +2038,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2278,6 +2298,9 @@
       <c r="CE7" t="n">
         <v>1</v>
       </c>
+      <c r="CF7" t="n">
+        <v>79.09999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2527,6 +2550,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2782,6 +2808,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3025,6 +3054,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3274,6 +3306,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3521,6 +3556,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3768,6 +3806,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4025,6 +4066,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4284,6 +4328,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4772,6 +4822,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5015,6 +5068,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5254,6 +5310,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5493,6 +5552,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5744,6 +5806,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5999,6 +6064,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6254,6 +6322,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6505,6 +6576,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6756,6 +6830,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7005,6 +7082,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7250,6 +7330,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7503,6 +7586,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7758,6 +7844,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7999,6 +8088,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8242,6 +8334,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8493,6 +8588,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8740,6 +8838,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8993,6 +9094,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9226,6 +9330,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9471,6 +9578,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9710,6 +9820,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9965,6 +10078,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10208,6 +10324,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10455,6 +10574,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10700,6 +10822,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10947,6 +11072,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11196,6 +11324,9 @@
       <c r="CE43" t="n">
         <v>1</v>
       </c>
+      <c r="CF43" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11435,6 +11566,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11690,6 +11824,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11939,6 +12076,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12194,6 +12334,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12450,6 +12593,9 @@
       </c>
       <c r="CE48" t="n">
         <v>0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="49">
@@ -12678,6 +12824,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12927,6 +13076,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13174,6 +13326,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13421,6 +13576,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13656,6 +13814,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13903,6 +14064,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14146,6 +14310,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14401,6 +14568,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14644,6 +14814,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14899,6 +15072,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15148,6 +15324,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15387,6 +15566,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15638,6 +15820,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15885,6 +16070,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16142,6 +16330,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16381,6 +16572,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16620,6 +16814,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16875,6 +17072,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17130,6 +17330,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17371,6 +17574,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17622,6 +17828,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17871,6 +18080,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18118,6 +18330,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18375,6 +18590,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18630,6 +18848,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18885,6 +19106,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19134,6 +19358,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19381,6 +19608,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19628,6 +19858,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19873,6 +20106,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20112,6 +20348,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20355,6 +20594,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20596,6 +20838,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20835,6 +21080,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21074,6 +21322,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21315,6 +21566,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21572,6 +21826,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21829,6 +22086,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22084,6 +22344,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22335,6 +22598,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22574,6 +22840,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22821,6 +23090,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23076,6 +23348,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23319,6 +23594,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23568,6 +23846,9 @@
       <c r="CE93" t="n">
         <v>1</v>
       </c>
+      <c r="CF93" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23815,6 +24096,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24064,6 +24348,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24311,6 +24598,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24550,6 +24840,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24789,6 +25082,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25034,6 +25330,9 @@
       <c r="CE99" t="n">
         <v>1</v>
       </c>
+      <c r="CF99" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25275,6 +25574,9 @@
       <c r="CE100" t="n">
         <v>1</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25526,6 +25828,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25775,6 +26080,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26014,6 +26322,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26255,6 +26566,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26498,6 +26812,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26737,6 +27054,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26986,6 +27306,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27247,6 +27570,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27492,6 +27818,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27735,6 +28064,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27990,6 +28322,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28229,6 +28564,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28486,6 +28824,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28747,6 +29088,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29000,6 +29344,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29247,6 +29594,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29490,6 +29840,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
